--- a/data/trans_orig/P1402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5652</v>
+        <v>5484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001980550808284796</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01143985945190231</v>
+        <v>0.01109877246881752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4914</v>
+        <v>4690</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001017643991632662</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005110976246280255</v>
+        <v>0.004877784930998917</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>493085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488412</v>
+        <v>488580</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -816,7 +816,7 @@
         <v>0.9980194491917153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9885601405480975</v>
+        <v>0.988901227531182</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>960574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956639</v>
+        <v>956863</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -850,7 +850,7 @@
         <v>0.9989823560083674</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9948890237537198</v>
+        <v>0.9951222150690019</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10157</v>
+        <v>9440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002421093735100877</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01381026271124363</v>
+        <v>0.01283489218512771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -966,19 +966,19 @@
         <v>3013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8042</v>
+        <v>8282</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004816891910929727</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001414120399705975</v>
+        <v>0.001411528818303961</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01285709210687601</v>
+        <v>0.01324151615977477</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -987,19 +987,19 @@
         <v>4794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1766</v>
+        <v>1155</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12198</v>
+        <v>11118</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003522178450535878</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001297706136066649</v>
+        <v>0.0008486017008671868</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008962345611103375</v>
+        <v>0.008169188444269258</v>
       </c>
     </row>
     <row r="8">
@@ -1016,7 +1016,7 @@
         <v>733708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>725332</v>
+        <v>726049</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1025,7 +1025,7 @@
         <v>0.9975789062648991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9861897372887564</v>
+        <v>0.9871651078148723</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1037,19 +1037,19 @@
         <v>622481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>617452</v>
+        <v>617212</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>624609</v>
+        <v>624611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9951831080890703</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9871429078931243</v>
+        <v>0.9867584838402252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.998585879600294</v>
+        <v>0.998588471181696</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1290</v>
@@ -1058,19 +1058,19 @@
         <v>1356188</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1348784</v>
+        <v>1349864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1359216</v>
+        <v>1359827</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9964778215494641</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9910376543888967</v>
+        <v>0.9918308115557307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9987022938639334</v>
+        <v>0.9991513982991328</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>16062</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9289</v>
+        <v>9312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26300</v>
+        <v>26731</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02514846576204322</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01454446232190186</v>
+        <v>0.01458015880195268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04117894259605274</v>
+        <v>0.04185410540896255</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1183,19 +1183,19 @@
         <v>7186</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3022</v>
+        <v>3206</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14372</v>
+        <v>15304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01041892814715356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004381802842741337</v>
+        <v>0.004648047284607494</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02083709300928052</v>
+        <v>0.02218761573567101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1204,19 +1204,19 @@
         <v>23248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14935</v>
+        <v>15205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33961</v>
+        <v>34423</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01750052582937845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0112424465273514</v>
+        <v>0.01144630852328388</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02556517841454186</v>
+        <v>0.02591311909594757</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>622606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612368</v>
+        <v>611937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>629379</v>
+        <v>629356</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9748515342379568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9588210574039471</v>
+        <v>0.9581458945910373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9854555376780981</v>
+        <v>0.9854198411980473</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -1254,19 +1254,19 @@
         <v>682558</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>675372</v>
+        <v>674440</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>686722</v>
+        <v>686538</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9895810718528465</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9791629069907195</v>
+        <v>0.9778123842643305</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9956181971572587</v>
+        <v>0.9953519527153925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1249</v>
@@ -1275,19 +1275,19 @@
         <v>1305164</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1294451</v>
+        <v>1293989</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1313477</v>
+        <v>1313207</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9824994741706216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9744348215854585</v>
+        <v>0.9740868809040525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9887575534726487</v>
+        <v>0.9885536914767161</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>22846</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14817</v>
+        <v>14123</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33577</v>
+        <v>34704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04400733988216855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02854029545913314</v>
+        <v>0.02720425008847458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06467742564162125</v>
+        <v>0.06684757144599192</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1400,19 +1400,19 @@
         <v>20994</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13801</v>
+        <v>12916</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32426</v>
+        <v>31244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04071458140203814</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02676407162294858</v>
+        <v>0.02504808914165296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06288474319475175</v>
+        <v>0.06059243545405715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1421,19 +1421,19 @@
         <v>43840</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33353</v>
+        <v>31828</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58950</v>
+        <v>58238</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04236653728230379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03223216965559433</v>
+        <v>0.0307579824528658</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05696828790209563</v>
+        <v>0.05628041701022445</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>496301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>485570</v>
+        <v>484443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504330</v>
+        <v>505024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9559926601178315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9353225743583786</v>
+        <v>0.9331524285540092</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9714597045408668</v>
+        <v>0.9727957499115254</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>480</v>
@@ -1471,19 +1471,19 @@
         <v>494648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>483216</v>
+        <v>484398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501841</v>
+        <v>502726</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9592854185979619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9371152568052483</v>
+        <v>0.9394075645459431</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9732359283770514</v>
+        <v>0.9749519108583471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>942</v>
@@ -1492,19 +1492,19 @@
         <v>990949</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>975839</v>
+        <v>976551</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1001436</v>
+        <v>1002961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9576334627176962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9430317120979043</v>
+        <v>0.9437195829897754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9677678303444056</v>
+        <v>0.969242017547134</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>44335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33194</v>
+        <v>33374</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57892</v>
+        <v>59370</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1146472187674222</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08583635657086212</v>
+        <v>0.08630333858435804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1497034243965991</v>
+        <v>0.1535262982045975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1617,19 +1617,19 @@
         <v>49657</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37063</v>
+        <v>37570</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63926</v>
+        <v>63811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1229174082292507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0917444780407275</v>
+        <v>0.09299758994558698</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1582386084921028</v>
+        <v>0.1579544693982519</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -1638,19 +1638,19 @@
         <v>93992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76508</v>
+        <v>76020</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111678</v>
+        <v>113694</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1188726613221717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09676045039077641</v>
+        <v>0.09614252444825602</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.141240311676477</v>
+        <v>0.1437895819641544</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>342375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>328818</v>
+        <v>327340</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>353516</v>
+        <v>353336</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8853527812325778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8502965756034009</v>
+        <v>0.8464737017954025</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9141636434291378</v>
+        <v>0.9136966614156419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -1688,19 +1688,19 @@
         <v>354329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>340060</v>
+        <v>340175</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>366923</v>
+        <v>366416</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8770825917707493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8417613915078975</v>
+        <v>0.842045530601748</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9082555219592728</v>
+        <v>0.907002410054413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>693</v>
@@ -1709,19 +1709,19 @@
         <v>696704</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>679018</v>
+        <v>677002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>714188</v>
+        <v>714676</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8811273386778283</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8587596883235229</v>
+        <v>0.8562104180358456</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9032395496092235</v>
+        <v>0.9038574755517441</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>57154</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45288</v>
+        <v>44938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71252</v>
+        <v>70141</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1953415666982344</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.154787717906008</v>
+        <v>0.1535915330719447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2435281998906951</v>
+        <v>0.2397297337380777</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -1834,19 +1834,19 @@
         <v>76437</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63714</v>
+        <v>63791</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92846</v>
+        <v>92840</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2228914890166786</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1857897106660726</v>
+        <v>0.1860156753975055</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2707402542718234</v>
+        <v>0.2707233584896138</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -1855,19 +1855,19 @@
         <v>133591</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113869</v>
+        <v>116226</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153091</v>
+        <v>154018</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2102078960719914</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1791756147648644</v>
+        <v>0.1828842039811268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2408921981976804</v>
+        <v>0.242351320772186</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>235429</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221331</v>
+        <v>222442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247295</v>
+        <v>247645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8046584333017656</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.756471800109305</v>
+        <v>0.7602702662619225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8452122820939921</v>
+        <v>0.8464084669280554</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>289</v>
@@ -1905,19 +1905,19 @@
         <v>266497</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250088</v>
+        <v>250094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>279220</v>
+        <v>279143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7771085109833213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7292597457281768</v>
+        <v>0.7292766415103864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8142102893339274</v>
+        <v>0.8139843246024946</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>530</v>
@@ -1926,19 +1926,19 @@
         <v>501926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>482426</v>
+        <v>481499</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521648</v>
+        <v>519291</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7897921039280086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7591078018023195</v>
+        <v>0.7576486792278141</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8208243852351356</v>
+        <v>0.8171157960188732</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>42311</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32054</v>
+        <v>31550</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53679</v>
+        <v>54210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2015936456343728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1527218764144164</v>
+        <v>0.1503215068944746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2557558901036676</v>
+        <v>0.2582868547175865</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -2051,19 +2051,19 @@
         <v>71961</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56790</v>
+        <v>57428</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89316</v>
+        <v>90481</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2155121891043253</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1700779606660072</v>
+        <v>0.1719867148274212</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2674863739564108</v>
+        <v>0.2709749339858352</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -2072,19 +2072,19 @@
         <v>114272</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95381</v>
+        <v>96256</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134073</v>
+        <v>136200</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2101401513943046</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1753996589792851</v>
+        <v>0.1770089239112752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2465526879488083</v>
+        <v>0.2504642078843438</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>167572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>156204</v>
+        <v>155673</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>177829</v>
+        <v>178333</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7984063543656271</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7442441098963323</v>
+        <v>0.7417131452824151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8472781235855835</v>
+        <v>0.8496784931055255</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>228</v>
@@ -2122,19 +2122,19 @@
         <v>261947</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>244592</v>
+        <v>243427</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>277118</v>
+        <v>276480</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7844878108956747</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7325136260435893</v>
+        <v>0.7290250660141647</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8299220393339929</v>
+        <v>0.8280132851725789</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>404</v>
@@ -2143,19 +2143,19 @@
         <v>429519</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>409718</v>
+        <v>407591</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>448410</v>
+        <v>447535</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7898598486056955</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7534473120511916</v>
+        <v>0.7495357921156551</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8246003410207149</v>
+        <v>0.8229910760887247</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>185467</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05660445092362176</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>224</v>
@@ -2268,19 +2268,19 @@
         <v>229249</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06784117436893325</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>416</v>
@@ -2289,19 +2289,19 @@
         <v>414716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06230946674902334</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3091076</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3066445</v>
+        <v>3065098</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3115846</v>
+        <v>3116493</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9433955490763782</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9358781712954611</v>
+        <v>0.9354670484225888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.95095521330934</v>
+        <v>0.9511526652231349</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3073</v>
@@ -2339,19 +2339,19 @@
         <v>3149948</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3120281</v>
+        <v>3118808</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3180088</v>
+        <v>3176142</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9321588256310668</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9233793101475445</v>
+        <v>0.9229436018354911</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9410780048526205</v>
+        <v>0.9399103672749645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6095</v>
@@ -2360,19 +2360,19 @@
         <v>6241025</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6198880</v>
+        <v>6201432</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6278005</v>
+        <v>6277236</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9376905332509766</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9313583506885944</v>
+        <v>0.9317417759123237</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9432465757485009</v>
+        <v>0.9431310117936085</v>
       </c>
     </row>
     <row r="27">
@@ -2707,19 +2707,19 @@
         <v>2777</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7462</v>
+        <v>7530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006114087098858327</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001962328231198684</v>
+        <v>0.001960115656066419</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01642988504473497</v>
+        <v>0.01658134660057513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7175</v>
+        <v>7190</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004749833599578812</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01667773690524219</v>
+        <v>0.01671117520436524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2749,19 +2749,19 @@
         <v>4820</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10109</v>
+        <v>10454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005450407233412822</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002109950573617148</v>
+        <v>0.002107776547281749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01143015032281067</v>
+        <v>0.01182031260250674</v>
       </c>
     </row>
     <row r="5">
@@ -2778,19 +2778,19 @@
         <v>451369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446684</v>
+        <v>446616</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453255</v>
+        <v>453256</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9938859129011417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.983570114955265</v>
+        <v>0.9834186533994247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9980376717688013</v>
+        <v>0.9980398843439336</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>419</v>
@@ -2799,7 +2799,7 @@
         <v>428186</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>423055</v>
+        <v>423040</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -2808,7 +2808,7 @@
         <v>0.9952501664004212</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9833222630947578</v>
+        <v>0.9832888247956347</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2820,19 +2820,19 @@
         <v>879556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>874267</v>
+        <v>873922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>882510</v>
+        <v>882512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9945495927665872</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9885698496771889</v>
+        <v>0.9881796873974932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9978900494263828</v>
+        <v>0.9978922234527182</v>
       </c>
     </row>
     <row r="6">
@@ -2924,19 +2924,19 @@
         <v>7770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2975</v>
+        <v>3015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16394</v>
+        <v>15386</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01130838393470173</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004330224809441846</v>
+        <v>0.004388709292985364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02385999765661226</v>
+        <v>0.02239332655454388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2945,19 +2945,19 @@
         <v>8759</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3960</v>
+        <v>3975</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16472</v>
+        <v>17152</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01435296416936268</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006489729507580142</v>
+        <v>0.006514394389355189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02699151501512729</v>
+        <v>0.02810674454187953</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2966,19 +2966,19 @@
         <v>16529</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9792</v>
+        <v>8853</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27820</v>
+        <v>27620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01274052049781582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007547734715067381</v>
+        <v>0.006823676630454962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02144420285871635</v>
+        <v>0.02128985370446919</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>679317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>670693</v>
+        <v>671701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>684112</v>
+        <v>684072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9886916160652983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9761400023433873</v>
+        <v>0.9776066734454562</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9956697751905581</v>
+        <v>0.9956112907070146</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -3016,19 +3016,19 @@
         <v>601496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>593783</v>
+        <v>593103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>606295</v>
+        <v>606280</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9856470358306373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9730084849848727</v>
+        <v>0.9718932554581204</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9935102704924199</v>
+        <v>0.9934856056106448</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1223</v>
@@ -3037,19 +3037,19 @@
         <v>1280813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1269522</v>
+        <v>1269722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1287550</v>
+        <v>1288489</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9872594795021842</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9785557971412847</v>
+        <v>0.9787101462955309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9924522652849327</v>
+        <v>0.993176323369545</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>3904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9177</v>
+        <v>9713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005724867519035624</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001502979357594652</v>
+        <v>0.001495453707438402</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01345854053723028</v>
+        <v>0.01424427883404229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3162,19 +3162,19 @@
         <v>13071</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7876</v>
+        <v>7960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21768</v>
+        <v>22497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01842140316572746</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01110000615505158</v>
+        <v>0.01121771430697079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03067797479439289</v>
+        <v>0.03170471967727468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3183,19 +3183,19 @@
         <v>16975</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9992</v>
+        <v>10781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26187</v>
+        <v>26293</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01219956625897881</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007181145988290938</v>
+        <v>0.007748193974557879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01881998283286417</v>
+        <v>0.01889619510439835</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>677959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672686</v>
+        <v>672150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680838</v>
+        <v>680843</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9942751324809643</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9865414594627663</v>
+        <v>0.9857557211659577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984970206424053</v>
+        <v>0.9985045462925616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>653</v>
@@ -3233,19 +3233,19 @@
         <v>696503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>687806</v>
+        <v>687077</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>701698</v>
+        <v>701614</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9815785968342725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9693220252056071</v>
+        <v>0.9682952803227247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888999938449484</v>
+        <v>0.9887822856930292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1300</v>
@@ -3254,19 +3254,19 @@
         <v>1374462</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1365250</v>
+        <v>1365144</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1381445</v>
+        <v>1380656</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9878004337410212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9811800171671358</v>
+        <v>0.9811038048956023</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9928188540117091</v>
+        <v>0.9922518060254421</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>26724</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17903</v>
+        <v>18538</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38684</v>
+        <v>39918</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04348102779134116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02912870885339568</v>
+        <v>0.03016218508607033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06293954623826381</v>
+        <v>0.06494808412849226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3379,19 +3379,19 @@
         <v>21477</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13417</v>
+        <v>13155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32888</v>
+        <v>33564</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03496347526719426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02184218456196771</v>
+        <v>0.02141581404684111</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05354125255129618</v>
+        <v>0.05464136138759602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3400,19 +3400,19 @@
         <v>48201</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36203</v>
+        <v>35641</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63985</v>
+        <v>63313</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03922347428180471</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02946025579124597</v>
+        <v>0.0290032198562572</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05206770326364518</v>
+        <v>0.0515210346057199</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>587893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>575933</v>
+        <v>574699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>596714</v>
+        <v>596079</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9565189722086588</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9370604537617361</v>
+        <v>0.9350519158715077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9708712911466043</v>
+        <v>0.9698378149139296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>519</v>
@@ -3450,19 +3450,19 @@
         <v>592787</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>581376</v>
+        <v>580700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>600847</v>
+        <v>601109</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9650365247328058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9464587474487037</v>
+        <v>0.9453586386124042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9781578154380322</v>
+        <v>0.9785841859531589</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1042</v>
@@ -3471,19 +3471,19 @@
         <v>1180679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1164895</v>
+        <v>1165567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1192677</v>
+        <v>1193239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9607765257181953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9479322967363547</v>
+        <v>0.94847896539428</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.970539744208754</v>
+        <v>0.9709967801437426</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>50741</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37869</v>
+        <v>37805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66465</v>
+        <v>65855</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1181583188832181</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08818389900806643</v>
+        <v>0.08803576189682484</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1547755924518197</v>
+        <v>0.1533554392870378</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -3596,19 +3596,19 @@
         <v>51170</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37397</v>
+        <v>39206</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64805</v>
+        <v>65995</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1142688565961792</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08351226436610622</v>
+        <v>0.08755258229899621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.14471860982201</v>
+        <v>0.1473770291334491</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -3617,19 +3617,19 @@
         <v>101910</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83064</v>
+        <v>84383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122804</v>
+        <v>122810</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1161728613863063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09468880122187998</v>
+        <v>0.09619216159399771</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1399908984658504</v>
+        <v>0.1399979350969293</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>378688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>362964</v>
+        <v>363574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>391560</v>
+        <v>391624</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8818416811167819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8452244075481802</v>
+        <v>0.8466445607129621</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9118161009919336</v>
+        <v>0.9119642381031751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>358</v>
@@ -3667,19 +3667,19 @@
         <v>396630</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>382995</v>
+        <v>381805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>410403</v>
+        <v>408594</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8857311434038209</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8552813901779902</v>
+        <v>0.8526229708665504</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.916487735633894</v>
+        <v>0.9124474177010038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>703</v>
@@ -3688,19 +3688,19 @@
         <v>775319</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>754425</v>
+        <v>754419</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>794165</v>
+        <v>792846</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8838271386136937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8600091015341496</v>
+        <v>0.8600020649030707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9053111987781198</v>
+        <v>0.9038078384060022</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>94531</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78750</v>
+        <v>75900</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112000</v>
+        <v>113446</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3051499307777371</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2542083749769214</v>
+        <v>0.2450080829261125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3615385667037768</v>
+        <v>0.3662076984151815</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -3813,19 +3813,19 @@
         <v>89037</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74035</v>
+        <v>73170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108569</v>
+        <v>105480</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2515187566943509</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.209140334526686</v>
+        <v>0.2066960779095495</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3066969181182471</v>
+        <v>0.2979708574020611</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>173</v>
@@ -3834,19 +3834,19 @@
         <v>183568</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>160867</v>
+        <v>161047</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>204962</v>
+        <v>209540</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2765483478986463</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2423484674352353</v>
+        <v>0.2426197177801146</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3087790605752901</v>
+        <v>0.3156754992955634</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>215255</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197786</v>
+        <v>196340</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231036</v>
+        <v>233886</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.694850069222263</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6384614332962232</v>
+        <v>0.6337923015848179</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7457916250230786</v>
+        <v>0.7549919170738871</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>256</v>
@@ -3884,19 +3884,19 @@
         <v>264959</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245427</v>
+        <v>248516</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>279961</v>
+        <v>280826</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7484812433056491</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6933030818817533</v>
+        <v>0.7020291425979389</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7908596654733141</v>
+        <v>0.7933039220904504</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>453</v>
@@ -3905,19 +3905,19 @@
         <v>480214</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>458820</v>
+        <v>454242</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>502915</v>
+        <v>502735</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7234516521013538</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6912209394247097</v>
+        <v>0.6843245007044365</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7576515325647647</v>
+        <v>0.7573802822198856</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>70680</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55890</v>
+        <v>57117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86877</v>
+        <v>85959</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.282889060546416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2236951903287366</v>
+        <v>0.2286047574277288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3477141465951921</v>
+        <v>0.3440400227730027</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -4030,19 +4030,19 @@
         <v>121646</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102121</v>
+        <v>103502</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>140571</v>
+        <v>142697</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3127317100300676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2625350675194188</v>
+        <v>0.2660871024178825</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3613835710957767</v>
+        <v>0.3668509873729272</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>176</v>
@@ -4051,19 +4051,19 @@
         <v>192326</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169777</v>
+        <v>168683</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>216811</v>
+        <v>214500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3010600396629314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2657629224032896</v>
+        <v>0.2640500240049027</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3393873450874785</v>
+        <v>0.3357705175421866</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>179171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>162974</v>
+        <v>163892</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>193961</v>
+        <v>192734</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.717110939453584</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6522858534048078</v>
+        <v>0.6559599772269972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7763048096712634</v>
+        <v>0.7713952425722704</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>238</v>
@@ -4101,19 +4101,19 @@
         <v>267333</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>248408</v>
+        <v>246282</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>286858</v>
+        <v>285477</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6872682899699325</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6386164289042234</v>
+        <v>0.6331490126270728</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7374649324805812</v>
+        <v>0.7339128975821175</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>396</v>
@@ -4122,19 +4122,19 @@
         <v>446504</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>422019</v>
+        <v>424330</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>469053</v>
+        <v>470147</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6989399603370686</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6606126549125214</v>
+        <v>0.6642294824578138</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7342370775967104</v>
+        <v>0.7359499759950974</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>257126</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>228588</v>
+        <v>225919</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>292571</v>
+        <v>290927</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07503437428869794</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06670623868613132</v>
+        <v>0.06592744942144681</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08537780398129409</v>
+        <v>0.08489795656720989</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>290</v>
@@ -4247,19 +4247,19 @@
         <v>307203</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>275145</v>
+        <v>275961</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>340459</v>
+        <v>343372</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08641193782767491</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07739449854276674</v>
+        <v>0.07762392035832197</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09576642422627944</v>
+        <v>0.09658572317982968</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>526</v>
@@ -4268,19 +4268,19 @@
         <v>564329</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>520243</v>
+        <v>522130</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>611249</v>
+        <v>612257</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08082770989948908</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0745134140554085</v>
+        <v>0.07478362567588512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08754794318881222</v>
+        <v>0.08769236859867235</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>3169653</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3134208</v>
+        <v>3135852</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3198191</v>
+        <v>3200860</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.924965625711302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.914622196018706</v>
+        <v>0.9151020434327901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9332937613138688</v>
+        <v>0.9340725505785532</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3006</v>
@@ -4318,19 +4318,19 @@
         <v>3247895</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3214639</v>
+        <v>3211726</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3279953</v>
+        <v>3279137</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9135880621723251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9042335757737204</v>
+        <v>0.9034142768201703</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9226055014572332</v>
+        <v>0.9223760796416777</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5979</v>
@@ -4339,19 +4339,19 @@
         <v>6417548</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6370628</v>
+        <v>6369620</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6461634</v>
+        <v>6459747</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9191722901005109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9124520568111877</v>
+        <v>0.9123076314013276</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9254865859445913</v>
+        <v>0.925216374324115</v>
       </c>
     </row>
     <row r="27">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4524</v>
+        <v>4968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002220947628154561</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01078430162879715</v>
+        <v>0.01184267118450748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4670</v>
+        <v>4661</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001142768376014628</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005727932483266029</v>
+        <v>0.005717271047067906</v>
       </c>
     </row>
     <row r="5">
@@ -4749,7 +4749,7 @@
         <v>418531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414939</v>
+        <v>414495</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4758,7 +4758,7 @@
         <v>0.9977790523718454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9892156983712035</v>
+        <v>0.9881573288154918</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>814286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810548</v>
+        <v>810557</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4792,7 +4792,7 @@
         <v>0.9988572316239853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9942720675167339</v>
+        <v>0.994282728952932</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7691</v>
+        <v>9921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003948923731105501</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01302460168805942</v>
+        <v>0.01680130569502461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4908,19 +4908,19 @@
         <v>4663</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1809</v>
+        <v>1776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10469</v>
+        <v>10214</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008274020991126268</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003210407426693497</v>
+        <v>0.003151379934756115</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01857717144072171</v>
+        <v>0.0181237251948737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4929,19 +4929,19 @@
         <v>6995</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3574</v>
+        <v>2846</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13630</v>
+        <v>13978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006060966083998413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003096615150554051</v>
+        <v>0.002465848151075576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01181040841364319</v>
+        <v>0.01211264639572665</v>
       </c>
     </row>
     <row r="8">
@@ -4958,7 +4958,7 @@
         <v>588164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>582805</v>
+        <v>580575</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4967,7 +4967,7 @@
         <v>0.9960510762688946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869753983119406</v>
+        <v>0.9831986943049754</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4979,19 +4979,19 @@
         <v>558881</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>553075</v>
+        <v>553330</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>561735</v>
+        <v>561768</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9917259790088737</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9814228285592769</v>
+        <v>0.9818762748051258</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967895925733065</v>
+        <v>0.9968486200652439</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1139</v>
@@ -5000,19 +5000,19 @@
         <v>1147045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1140410</v>
+        <v>1140062</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1150466</v>
+        <v>1151194</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9939390339160016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.988189591586357</v>
+        <v>0.9878873536042734</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969033848494461</v>
+        <v>0.9975341518489245</v>
       </c>
     </row>
     <row r="9">
@@ -5104,19 +5104,19 @@
         <v>12858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6749</v>
+        <v>6923</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21558</v>
+        <v>22006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0192176114663238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01008734255446688</v>
+        <v>0.01034724346613325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03222007640080454</v>
+        <v>0.03288842023590078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5125,19 +5125,19 @@
         <v>7535</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2901</v>
+        <v>3646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14215</v>
+        <v>14268</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01139339013465186</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004385890332874363</v>
+        <v>0.005512616428079016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02149201601092585</v>
+        <v>0.021572329115853</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -5146,19 +5146,19 @@
         <v>20394</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12640</v>
+        <v>12436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31434</v>
+        <v>31503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01532817225291172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009499969442446398</v>
+        <v>0.009346761397381579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02362565070445225</v>
+        <v>0.02367758596287147</v>
       </c>
     </row>
     <row r="11">
@@ -5175,19 +5175,19 @@
         <v>656239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>647539</v>
+        <v>647091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662348</v>
+        <v>662174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9807823885336762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9677799235991955</v>
+        <v>0.9671115797640993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.989912657445533</v>
+        <v>0.9896527565338668</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -5196,19 +5196,19 @@
         <v>653851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>647171</v>
+        <v>647118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658485</v>
+        <v>657740</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9886066098653481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9785079839890741</v>
+        <v>0.9784276708841476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9956141096671256</v>
+        <v>0.994487383571921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1283</v>
@@ -5217,19 +5217,19 @@
         <v>1310089</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1299049</v>
+        <v>1298980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317843</v>
+        <v>1318047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9846718277470883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9763743492955478</v>
+        <v>0.9763224140371285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9905000305575535</v>
+        <v>0.9906532386026184</v>
       </c>
     </row>
     <row r="12">
@@ -5321,19 +5321,19 @@
         <v>35576</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25159</v>
+        <v>25686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50732</v>
+        <v>48704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05506739296481555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03894255490361018</v>
+        <v>0.039758829989936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07852735095590399</v>
+        <v>0.07538722480386498</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -5342,19 +5342,19 @@
         <v>22758</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14736</v>
+        <v>14172</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35224</v>
+        <v>33005</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03506160430132216</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02270281455475701</v>
+        <v>0.02183388031275067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05426742205829965</v>
+        <v>0.05084989021922819</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -5363,19 +5363,19 @@
         <v>58334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43591</v>
+        <v>43725</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76432</v>
+        <v>74343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04504110693825713</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03365783566143968</v>
+        <v>0.03376144366058133</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0590149780154583</v>
+        <v>0.05740222643015797</v>
       </c>
     </row>
     <row r="14">
@@ -5392,19 +5392,19 @@
         <v>610472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>595316</v>
+        <v>597344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>620889</v>
+        <v>620362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9449326070351844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9214726490440961</v>
+        <v>0.9246127751961351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9610574450963905</v>
+        <v>0.9602411700100641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>581</v>
@@ -5413,19 +5413,19 @@
         <v>626319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>613853</v>
+        <v>616072</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>634341</v>
+        <v>634905</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9649383956986778</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9457325779417004</v>
+        <v>0.9491501097807717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.977297185445243</v>
+        <v>0.9781661196872488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1131</v>
@@ -5434,19 +5434,19 @@
         <v>1236791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1218693</v>
+        <v>1220782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1251534</v>
+        <v>1251400</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9549588930617429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9409850219845418</v>
+        <v>0.942597773569842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9663421643385603</v>
+        <v>0.9662385563394187</v>
       </c>
     </row>
     <row r="15">
@@ -5538,19 +5538,19 @@
         <v>63481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49736</v>
+        <v>49162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80300</v>
+        <v>78809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1328282191885181</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1040688334393048</v>
+        <v>0.1028674205355246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.168019984948079</v>
+        <v>0.1649002154682931</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -5559,19 +5559,19 @@
         <v>62051</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48730</v>
+        <v>47893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>80173</v>
+        <v>77926</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1248889205066006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09807815844250135</v>
+        <v>0.0963930179607974</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1613633491546852</v>
+        <v>0.1568404609746858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -5580,19 +5580,19 @@
         <v>125532</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103081</v>
+        <v>103651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>149075</v>
+        <v>147219</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1287814750718268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1057493596946824</v>
+        <v>0.1063339027328898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1529343309001775</v>
+        <v>0.151030033627067</v>
       </c>
     </row>
     <row r="17">
@@ -5609,19 +5609,19 @@
         <v>414437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>397618</v>
+        <v>399109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428182</v>
+        <v>428756</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8671717808114819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8319800150519209</v>
+        <v>0.8350997845317059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8959311665606952</v>
+        <v>0.8971325794644754</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>377</v>
@@ -5630,19 +5630,19 @@
         <v>434798</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>416676</v>
+        <v>418923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>448119</v>
+        <v>448956</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8751110794933994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8386366508453149</v>
+        <v>0.8431595390253144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9019218415574987</v>
+        <v>0.9036069820392028</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>744</v>
@@ -5651,19 +5651,19 @@
         <v>849235</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>825692</v>
+        <v>827548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>871686</v>
+        <v>871116</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8712185249281732</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8470656690998225</v>
+        <v>0.8489699663729326</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8942506403053172</v>
+        <v>0.89366609726711</v>
       </c>
     </row>
     <row r="18">
@@ -5755,19 +5755,19 @@
         <v>94352</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76655</v>
+        <v>78897</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110997</v>
+        <v>112179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2822119808833575</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2292781230861678</v>
+        <v>0.2359845150241754</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3319975634150973</v>
+        <v>0.3355338807276411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -5776,19 +5776,19 @@
         <v>86562</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69287</v>
+        <v>69318</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>103671</v>
+        <v>103648</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2291436881956974</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.183413873439475</v>
+        <v>0.1834976717745084</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2744337289197601</v>
+        <v>0.2743747686257013</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -5797,19 +5797,19 @@
         <v>180914</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156913</v>
+        <v>158000</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>203693</v>
+        <v>205343</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2540594605994968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2203554504192352</v>
+        <v>0.22188094311587</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2860486804861075</v>
+        <v>0.2883656987195539</v>
       </c>
     </row>
     <row r="20">
@@ -5826,19 +5826,19 @@
         <v>239978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223333</v>
+        <v>222151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257675</v>
+        <v>255433</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7177880191166426</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6680024365849027</v>
+        <v>0.664466119272359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7707218769138324</v>
+        <v>0.7640154849758246</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>273</v>
@@ -5847,19 +5847,19 @@
         <v>291200</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>274091</v>
+        <v>274114</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>308475</v>
+        <v>308444</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7708563118043026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7255662710802405</v>
+        <v>0.7256252313742988</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8165861265605251</v>
+        <v>0.8165023282254914</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>507</v>
@@ -5868,19 +5868,19 @@
         <v>531178</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>508399</v>
+        <v>506749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>555179</v>
+        <v>554092</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7459405394005032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7139513195138926</v>
+        <v>0.7116343012804461</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7796445495807647</v>
+        <v>0.77811905688413</v>
       </c>
     </row>
     <row r="21">
@@ -5972,19 +5972,19 @@
         <v>88185</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73952</v>
+        <v>74721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103076</v>
+        <v>102829</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3431346169142467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2877521626642727</v>
+        <v>0.2907454344197641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4010772986702092</v>
+        <v>0.4001154330801155</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -5993,19 +5993,19 @@
         <v>113610</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93908</v>
+        <v>94093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133198</v>
+        <v>135192</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.283905901332873</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2346716311044653</v>
+        <v>0.2351324742458105</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3328531989417171</v>
+        <v>0.3378374019298598</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>189</v>
@@ -6014,19 +6014,19 @@
         <v>201795</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176113</v>
+        <v>175469</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>227193</v>
+        <v>225827</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3070684482936614</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2679886269228772</v>
+        <v>0.2670084718478458</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3457161600122542</v>
+        <v>0.3436364098825181</v>
       </c>
     </row>
     <row r="23">
@@ -6043,19 +6043,19 @@
         <v>168813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>153922</v>
+        <v>154169</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>183046</v>
+        <v>182277</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6568653830857534</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5989227013297911</v>
+        <v>0.5998845669198846</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7122478373357276</v>
+        <v>0.7092545655802359</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>215</v>
@@ -6064,19 +6064,19 @@
         <v>286559</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>266971</v>
+        <v>264977</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>306261</v>
+        <v>306076</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7160940986671269</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6671468010582828</v>
+        <v>0.6621625980701408</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7653283688955347</v>
+        <v>0.7648675257541898</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>414</v>
@@ -6085,19 +6085,19 @@
         <v>455372</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>429974</v>
+        <v>431340</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>481054</v>
+        <v>481698</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6929315517063387</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6542838399877458</v>
+        <v>0.6563635901174819</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7320113730771227</v>
+        <v>0.7329915281521541</v>
       </c>
     </row>
     <row r="24">
@@ -6189,19 +6189,19 @@
         <v>297716</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>267232</v>
+        <v>261615</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>330032</v>
+        <v>328637</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08770924501005262</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07872848379117263</v>
+        <v>0.07707380203792968</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09722985943549743</v>
+        <v>0.09681875621243795</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>257</v>
@@ -6210,19 +6210,19 @@
         <v>297179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>260278</v>
+        <v>263414</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>332822</v>
+        <v>333959</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08384128023455691</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07343076164983572</v>
+        <v>0.07431539782587862</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09389707057033511</v>
+        <v>0.09421769906479904</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>555</v>
@@ -6231,19 +6231,19 @@
         <v>594895</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>547519</v>
+        <v>545158</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>642923</v>
+        <v>645905</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08573340175995259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07890582724480741</v>
+        <v>0.07856558171309563</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0926550157400312</v>
+        <v>0.09308475615842204</v>
       </c>
     </row>
     <row r="26">
@@ -6260,19 +6260,19 @@
         <v>3096634</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3064318</v>
+        <v>3065713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3127118</v>
+        <v>3132735</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9122907549899474</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9027701405645026</v>
+        <v>0.9031812437875621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9212715162088274</v>
+        <v>0.9229261979620703</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3081</v>
@@ -6281,19 +6281,19 @@
         <v>3247363</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3211720</v>
+        <v>3210583</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3284264</v>
+        <v>3281128</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9161587197654431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9061029294296649</v>
+        <v>0.905782300935201</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9265692383501641</v>
+        <v>0.9256846021741209</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6014</v>
@@ -6302,19 +6302,19 @@
         <v>6343997</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6295969</v>
+        <v>6292987</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6391373</v>
+        <v>6393734</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9142665982400474</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9073449842599689</v>
+        <v>0.906915243841578</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9210941727551927</v>
+        <v>0.9214344182869044</v>
       </c>
     </row>
     <row r="27">
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5646</v>
+        <v>6394</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003048561253592098</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01557439945409431</v>
+        <v>0.01763925987775508</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5556</v>
+        <v>6554</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001441067453225693</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00724452875455661</v>
+        <v>0.008546038209431728</v>
       </c>
     </row>
     <row r="5">
@@ -6725,7 +6725,7 @@
         <v>361407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>356866</v>
+        <v>356118</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6734,7 +6734,7 @@
         <v>0.9969514387464079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9844256005459059</v>
+        <v>0.9823607401222449</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6746,16 +6746,16 @@
         <v>765785</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>761334</v>
+        <v>760336</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>766890</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9985589325467743</v>
+        <v>0.9985589325467744</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9927554712454445</v>
+        <v>0.9914539617905679</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6850,19 +6850,19 @@
         <v>5781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1228</v>
+        <v>1584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19519</v>
+        <v>17057</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01212323079581948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002575397378065006</v>
+        <v>0.003321747911797015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04092993329414818</v>
+        <v>0.03576693515209</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3864</v>
+        <v>3457</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001548531079718382</v>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007711428873529151</v>
+        <v>0.006899766938734954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -6892,19 +6892,19 @@
         <v>6557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1915</v>
+        <v>1884</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18118</v>
+        <v>17709</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.006705083990508022</v>
+        <v>0.006705083990508021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001958093302506218</v>
+        <v>0.001926107117292415</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01852637243646527</v>
+        <v>0.0181075199365908</v>
       </c>
     </row>
     <row r="8">
@@ -6921,19 +6921,19 @@
         <v>471109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>457371</v>
+        <v>459833</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475662</v>
+        <v>475306</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9878767692041804</v>
+        <v>0.9878767692041805</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9590700667058533</v>
+        <v>0.9642330648479103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.997424602621935</v>
+        <v>0.9966782520882072</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>459</v>
@@ -6942,16 +6942,16 @@
         <v>500307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>497219</v>
+        <v>497626</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>501083</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9984514689202815</v>
+        <v>0.9984514689202816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9922885711264708</v>
+        <v>0.9931002330612654</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6963,19 +6963,19 @@
         <v>971416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>959855</v>
+        <v>960264</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>976058</v>
+        <v>976089</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9932949160094919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9814736275635345</v>
+        <v>0.9818924800634083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980419066974937</v>
+        <v>0.9980738928827075</v>
       </c>
     </row>
     <row r="9">
@@ -7067,19 +7067,19 @@
         <v>13761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7396</v>
+        <v>7498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22482</v>
+        <v>22634</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02216516925234508</v>
+        <v>0.02216516925234507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01191243474956391</v>
+        <v>0.01207702855982394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03621300480277601</v>
+        <v>0.03645645471378833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -7088,19 +7088,19 @@
         <v>11095</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6295</v>
+        <v>6037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17852</v>
+        <v>17769</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01785179933352326</v>
+        <v>0.01785179933352327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01012937135842136</v>
+        <v>0.009713872984593558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02872423968998477</v>
+        <v>0.0285908789002746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -7109,19 +7109,19 @@
         <v>24856</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17078</v>
+        <v>16496</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36597</v>
+        <v>35366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02000735355324335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01374671595679596</v>
+        <v>0.01327819010902521</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02945875528930346</v>
+        <v>0.02846723623409836</v>
       </c>
     </row>
     <row r="11">
@@ -7138,19 +7138,19 @@
         <v>607076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598355</v>
+        <v>598203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>613441</v>
+        <v>613339</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9778348307476551</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9637869951972241</v>
+        <v>0.9635435452862117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9880875652504363</v>
+        <v>0.9879229714401758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>830</v>
@@ -7159,19 +7159,19 @@
         <v>610393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>603636</v>
+        <v>603719</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>615193</v>
+        <v>615451</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9821482006664767</v>
+        <v>0.9821482006664769</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9712757603100153</v>
+        <v>0.9714091210997257</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9898706286415788</v>
+        <v>0.9902861270154065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1363</v>
@@ -7180,19 +7180,19 @@
         <v>1217469</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1205728</v>
+        <v>1206959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1225247</v>
+        <v>1225829</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9799926464467567</v>
+        <v>0.9799926464467568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9705412447106975</v>
+        <v>0.9715327637659016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9862532840432042</v>
+        <v>0.9867218098909748</v>
       </c>
     </row>
     <row r="12">
@@ -7284,19 +7284,19 @@
         <v>48822</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36851</v>
+        <v>34154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64848</v>
+        <v>63307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06968434644811296</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05259764328120387</v>
+        <v>0.04874809233384027</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09255901868794052</v>
+        <v>0.09035962860774052</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -7305,19 +7305,19 @@
         <v>23245</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17323</v>
+        <v>17016</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31799</v>
+        <v>31537</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03156135054865811</v>
+        <v>0.0315613505486581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02352114070357669</v>
+        <v>0.0231038475342804</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.043176493205727</v>
+        <v>0.04282008234382046</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -7326,19 +7326,19 @@
         <v>72067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58470</v>
+        <v>57827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88908</v>
+        <v>88933</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05014697372396719</v>
+        <v>0.0501469737239672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04068555724070894</v>
+        <v>0.04023820604267823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06186563044439385</v>
+        <v>0.06188311439985067</v>
       </c>
     </row>
     <row r="14">
@@ -7355,19 +7355,19 @@
         <v>651795</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>635769</v>
+        <v>637310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>663766</v>
+        <v>666463</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9303156535518871</v>
+        <v>0.9303156535518868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9074409813120595</v>
+        <v>0.9096403713922594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.947402356718796</v>
+        <v>0.9512519076661592</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1102</v>
@@ -7376,19 +7376,19 @@
         <v>713250</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>704696</v>
+        <v>704958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>719172</v>
+        <v>719479</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9684386494513416</v>
+        <v>0.9684386494513418</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.956823506794273</v>
+        <v>0.9571799176561794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9764788592964233</v>
+        <v>0.9768961524657196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1721</v>
@@ -7397,19 +7397,19 @@
         <v>1365045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1348204</v>
+        <v>1348179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1378642</v>
+        <v>1379285</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9498530262760326</v>
+        <v>0.9498530262760329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9381343695556057</v>
+        <v>0.9381168856001493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9593144427592909</v>
+        <v>0.9597617939573218</v>
       </c>
     </row>
     <row r="15">
@@ -7501,19 +7501,19 @@
         <v>78425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63909</v>
+        <v>62091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97332</v>
+        <v>93500</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1289121295514725</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1050509103138905</v>
+        <v>0.1020623391488643</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1599903861744247</v>
+        <v>0.1536920244080412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -7522,19 +7522,19 @@
         <v>47868</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38339</v>
+        <v>38418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59142</v>
+        <v>59009</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0788012433933752</v>
+        <v>0.07880124339337521</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06311508325333073</v>
+        <v>0.06324412141553559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09736148997310995</v>
+        <v>0.09714304693106296</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>172</v>
@@ -7543,19 +7543,19 @@
         <v>126293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108732</v>
+        <v>109207</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>145044</v>
+        <v>147349</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1038754639643058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08943185728394153</v>
+        <v>0.08982241346934508</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1192989253716346</v>
+        <v>0.1211944950831847</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>529934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>511027</v>
+        <v>514859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>544450</v>
+        <v>546268</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8710878704485278</v>
+        <v>0.8710878704485274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8400096138255755</v>
+        <v>0.8463079755919588</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8949490896861094</v>
+        <v>0.8979376608511356</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>918</v>
@@ -7593,19 +7593,19 @@
         <v>559580</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>548306</v>
+        <v>548439</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>569109</v>
+        <v>569030</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9211987566066245</v>
+        <v>0.9211987566066248</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9026385100268899</v>
+        <v>0.9028569530689371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9368849167466695</v>
+        <v>0.9367558785844643</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1490</v>
@@ -7614,19 +7614,19 @@
         <v>1089514</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1070763</v>
+        <v>1068458</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1107075</v>
+        <v>1106600</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8961245360356941</v>
+        <v>0.8961245360356943</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8807010746283656</v>
+        <v>0.8788055049168152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9105681427160589</v>
+        <v>0.9101775865306548</v>
       </c>
     </row>
     <row r="18">
@@ -7718,19 +7718,19 @@
         <v>89323</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76120</v>
+        <v>76285</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103888</v>
+        <v>104380</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2213201991363886</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.188607808539117</v>
+        <v>0.1890157150110768</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2574099189341871</v>
+        <v>0.2586275258773494</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>140</v>
@@ -7739,19 +7739,19 @@
         <v>74695</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62568</v>
+        <v>64351</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86367</v>
+        <v>86556</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1700843425386664</v>
+        <v>0.1700843425386663</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1424693377624476</v>
+        <v>0.1465300925669041</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1966619007596921</v>
+        <v>0.1970906459890139</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>270</v>
@@ -7760,19 +7760,19 @@
         <v>164018</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>146345</v>
+        <v>146747</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>183633</v>
+        <v>183050</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1946208774392453</v>
+        <v>0.1946208774392454</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.173650697513751</v>
+        <v>0.1741277697683004</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2178952051515946</v>
+        <v>0.2172032056220352</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>314268</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>299703</v>
+        <v>299211</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>327471</v>
+        <v>327306</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7786798008636113</v>
+        <v>0.7786798008636115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7425900810658127</v>
+        <v>0.7413724741226504</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8113921914608828</v>
+        <v>0.8109842849889234</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>687</v>
@@ -7810,19 +7810,19 @@
         <v>364471</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>352799</v>
+        <v>352610</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>376598</v>
+        <v>374815</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8299156574613338</v>
+        <v>0.8299156574613337</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8033380992403079</v>
+        <v>0.8029093540109862</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8575306622375525</v>
+        <v>0.8534699074330959</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1123</v>
@@ -7831,19 +7831,19 @@
         <v>678739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>659124</v>
+        <v>659707</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>696412</v>
+        <v>696010</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8053791225607547</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7821047948484054</v>
+        <v>0.7827967943779648</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8263493024862492</v>
+        <v>0.8258722302316999</v>
       </c>
     </row>
     <row r="21">
@@ -7935,19 +7935,19 @@
         <v>92048</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79793</v>
+        <v>78518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>104893</v>
+        <v>105788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2967391585332924</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2572337376807758</v>
+        <v>0.2531236171646842</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3381495592636576</v>
+        <v>0.3410350389712288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>266</v>
@@ -7956,19 +7956,19 @@
         <v>133030</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120411</v>
+        <v>119140</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>148669</v>
+        <v>147281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.287423390133635</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.260158183831355</v>
+        <v>0.2574131838776892</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3212134278002295</v>
+        <v>0.3182144866214244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>409</v>
@@ -7977,19 +7977,19 @@
         <v>225078</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>203337</v>
+        <v>203601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>243661</v>
+        <v>244187</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2911615589646663</v>
+        <v>0.2911615589646664</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2630374873930886</v>
+        <v>0.2633783318721157</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3152007049243951</v>
+        <v>0.3158814528345867</v>
       </c>
     </row>
     <row r="23">
@@ -8006,19 +8006,19 @@
         <v>218150</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205305</v>
+        <v>204410</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>230405</v>
+        <v>231680</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7032608414667075</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6618504407363425</v>
+        <v>0.6589649610287693</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7427662623192236</v>
+        <v>0.7468763828353157</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>612</v>
@@ -8027,19 +8027,19 @@
         <v>329807</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>314168</v>
+        <v>315556</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>342426</v>
+        <v>343697</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.712576609866365</v>
+        <v>0.7125766098663651</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6787865721997707</v>
+        <v>0.6817855133785756</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7398418161686449</v>
+        <v>0.7425868161223109</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>927</v>
@@ -8048,19 +8048,19 @@
         <v>547957</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>529374</v>
+        <v>528848</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>569698</v>
+        <v>569434</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7088384410353337</v>
+        <v>0.7088384410353338</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6847992950756052</v>
+        <v>0.6841185471654134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7369625126069116</v>
+        <v>0.7366216681278843</v>
       </c>
     </row>
     <row r="24">
@@ -8152,19 +8152,19 @@
         <v>328160</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>293804</v>
+        <v>297306</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>359566</v>
+        <v>362373</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09309850503376976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08335161893581522</v>
+        <v>0.08434513625476105</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.102008394792297</v>
+        <v>0.1028045011550224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>543</v>
@@ -8173,19 +8173,19 @@
         <v>291814</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>265265</v>
+        <v>266405</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>315516</v>
+        <v>316623</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07821262707958804</v>
+        <v>0.07821262707958802</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07109691161738906</v>
+        <v>0.07140266166987179</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0845652904753893</v>
+        <v>0.08486219714060246</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>968</v>
@@ -8194,19 +8194,19 @@
         <v>619974</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>582589</v>
+        <v>581662</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>666803</v>
+        <v>663405</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08544409361179556</v>
+        <v>0.08544409361179553</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08029176399350695</v>
+        <v>0.08016400604683412</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09189800136500159</v>
+        <v>0.09142978568033808</v>
       </c>
     </row>
     <row r="26">
@@ -8223,19 +8223,19 @@
         <v>3196711</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3165305</v>
+        <v>3162498</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3231067</v>
+        <v>3227565</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9069014949662304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8979916052077029</v>
+        <v>0.8971954988449768</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9166483810641844</v>
+        <v>0.9156548637452387</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4814</v>
@@ -8244,19 +8244,19 @@
         <v>3439215</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3415513</v>
+        <v>3414406</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3465764</v>
+        <v>3464624</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.921787372920412</v>
+        <v>0.9217873729204118</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9154347095246106</v>
+        <v>0.9151378028593977</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.928903088382611</v>
+        <v>0.9285973383301283</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7759</v>
@@ -8265,19 +8265,19 @@
         <v>6635926</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6589097</v>
+        <v>6592495</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6673311</v>
+        <v>6674238</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9145559063882046</v>
+        <v>0.9145559063882045</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9081019986349984</v>
+        <v>0.908570214319662</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9197082360064932</v>
+        <v>0.9198359939531658</v>
       </c>
     </row>
     <row r="27">
